--- a/autoSave NPCs-ITEMs/ItemsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/ItemsAo-Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Imperial Shield</t>
+  </si>
+  <si>
+    <t>potion</t>
+  </si>
+  <si>
+    <t>Potion</t>
   </si>
 </sst>
 </file>
@@ -579,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1950,17 +1956,37 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0</v>
+      </c>
+      <c r="I39" s="6">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40"/>

--- a/autoSave NPCs-ITEMs/ItemsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/ItemsAo-Web.xlsx
@@ -586,7 +586,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1970,7 +1970,7 @@
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G39" s="6">
         <v>0</v>

--- a/autoSave NPCs-ITEMs/ItemsAo-Web.xlsx
+++ b/autoSave NPCs-ITEMs/ItemsAo-Web.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2718,36 +2718,16 @@
       <c r="M53"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" s="6">
-        <v>15</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="12">
-        <v>2000</v>
-      </c>
-      <c r="G63" s="6">
-        <v>1</v>
-      </c>
-      <c r="H63" s="6">
-        <v>15</v>
-      </c>
-      <c r="I63" s="6">
-        <v>1</v>
-      </c>
-      <c r="J63" s="6">
-        <v>2</v>
-      </c>
-      <c r="K63" s="6">
-        <v>5</v>
-      </c>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
     </row>
   </sheetData>
   <mergeCells count="4">
